--- a/Background_Data/last_name.xlsx
+++ b/Background_Data/last_name.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da6bb2b51c7d3a16/UFTM/Monitoria/Bioestatística/2022-1/Banco de Dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repositories\UFTM-BioStat-DataBase\Background_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{9A4E01AE-C0FC-4815-BA9C-587FA3C088C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90740740-B92A-4178-9348-ADC677763A68}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC6D5D1-96FD-44BC-A99B-D104EE184FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6922F30-E5DE-4547-83F8-69E3D2478557}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 0" sheetId="3" r:id="rId1"/>
+    <sheet name="Surname" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">'Table 0'!$A$1:$B$1003</definedName>
+    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">Surname!$A$1:$B$1003</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,12 +52,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="1004">
   <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>Incidence</t>
-  </si>
-  <si>
     <t>da Silva</t>
   </si>
   <si>
@@ -3062,6 +3056,12 @@
   </si>
   <si>
     <t>Uehara</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>incidence</t>
   </si>
 </sst>
 </file>
@@ -3145,8 +3145,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{042BE5C5-734B-4F7D-B95D-44EF5E63CF17}" name="Table_0" displayName="Table_0" ref="A1:B1003" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B1003" xr:uid="{042BE5C5-734B-4F7D-B95D-44EF5E63CF17}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{29F916A3-E429-4C97-9424-65C668B580F5}" uniqueName="1" name="Surname" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{E4C96FE7-1A51-4EBD-88AF-4E4D0B0301D8}" uniqueName="2" name="Incidence" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{29F916A3-E429-4C97-9424-65C668B580F5}" uniqueName="1" name="surname" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E4C96FE7-1A51-4EBD-88AF-4E4D0B0301D8}" uniqueName="2" name="incidence" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3451,8 +3451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE3A1F9-B326-4915-9101-D7B85105DAF8}">
   <dimension ref="A1:B1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
-      <selection activeCell="F999" sqref="F999"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3463,15 +3463,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1002</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>12585868</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>7427753</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>5594058</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>4872987</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>4848931</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>4197229</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>4080029</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>3972807</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>3598845</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2911536</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2902750</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>2302086</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>2108131</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1963741</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1786065</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>1739143</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>1711235</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>1566819</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>1548475</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>1536740</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>1511714</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>1457078</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>1431583</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>1395868</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>1303835</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>1281719</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>1228358</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>1208390</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>1102256</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>1086513</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>1061865</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>1031067</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>975453</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>926646</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>921343</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>901694</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>885997</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>852367</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>831731</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>827932</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>799060</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>781223</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>760825</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>739713</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>737478</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>722121</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>698062</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>685654</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>629476</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>610735</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>608350</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>549257</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>543544</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>541957</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>513996</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>507978</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>503830</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>497956</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>464687</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>456440</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>451062</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>428781</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>423833</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>423326</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>415415</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>403979</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>402190</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>400939</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>398565</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>397359</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>393746</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>392362</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>388605</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>387984</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>379332</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>376207</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>373259</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>365175</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>364280</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>363032</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>359146</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>353285</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>341425</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>335460</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>330188</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>323683</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>317356</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>315693</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>312941</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>309849</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>307922</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>302272</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>282163</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>281723</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>280772</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>280017</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>275632</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>275255</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>273260</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>263695</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>257252</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>255067</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>254685</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>250547</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>249734</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>249530</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>246306</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>246256</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>240657</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>233236</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>231352</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>231183</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>230440</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>223141</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>222326</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>217325</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>214741</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>214170</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>213701</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>213577</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>211519</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>210991</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>206386</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>201883</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>200809</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>196408</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>196382</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>196330</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>195243</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>194724</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>193368</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>192202</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>189655</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>189626</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>188922</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>188768</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>187465</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>185312</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>184281</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>184020</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>183373</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>181533</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>178678</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>178469</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>176058</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>173901</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>173060</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>170597</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>164723</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B151">
         <v>164247</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B152">
         <v>163943</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B153">
         <v>161050</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>160341</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>159613</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B156">
         <v>156923</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B157">
         <v>156623</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B158">
         <v>156515</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>155960</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>154628</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B161">
         <v>152847</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B162">
         <v>151185</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B163">
         <v>150030</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B164">
         <v>148356</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B165">
         <v>147738</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B166">
         <v>147001</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B167">
         <v>143345</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B168">
         <v>140958</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B169">
         <v>139608</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B170">
         <v>139124</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B171">
         <v>138138</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B172">
         <v>137018</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B173">
         <v>135967</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B174">
         <v>133468</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B175">
         <v>131941</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B176">
         <v>131781</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B177">
         <v>128588</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B178">
         <v>126128</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B179">
         <v>125793</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B180">
         <v>124628</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B181">
         <v>124314</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B182">
         <v>123556</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B183">
         <v>123386</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B184">
         <v>121917</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B185">
         <v>121460</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B186">
         <v>121178</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B187">
         <v>120154</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B188">
         <v>119826</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B189">
         <v>119644</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B190">
         <v>118617</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B191">
         <v>117711</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B192">
         <v>116810</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B193">
         <v>116677</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B194">
         <v>116157</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B195">
         <v>112865</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B196">
         <v>112380</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B197">
         <v>111768</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B198">
         <v>110352</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B199">
         <v>109412</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B200">
         <v>106521</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B201">
         <v>106239</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B202">
         <v>105432</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B203">
         <v>104120</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B204">
         <v>103500</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B205">
         <v>101961</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B206">
         <v>101638</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B207">
         <v>100761</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B208">
         <v>100349</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B209">
         <v>99911</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B210">
         <v>99513</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B211">
         <v>99410</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B212">
         <v>99300</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B213">
         <v>98223</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B214">
         <v>97641</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B215">
         <v>95697</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B216">
         <v>95169</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B217">
         <v>95056</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B218">
         <v>94765</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B219">
         <v>94323</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B220">
         <v>93760</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B221">
         <v>93727</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B222">
         <v>92853</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B223">
         <v>92412</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B224">
         <v>92215</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B225">
         <v>91324</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B226">
         <v>90582</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B227">
         <v>90552</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B228">
         <v>89911</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B229">
         <v>89888</v>
@@ -5295,7 +5295,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B230">
         <v>89045</v>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B231">
         <v>88729</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B232">
         <v>88460</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B233">
         <v>88158</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B234">
         <v>87788</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B235">
         <v>87139</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B236">
         <v>86613</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B237">
         <v>86520</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B238">
         <v>85878</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B239">
         <v>85867</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B240">
         <v>85777</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B241">
         <v>84462</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B242">
         <v>84341</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B243">
         <v>84209</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B244">
         <v>84207</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B245">
         <v>84145</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B246">
         <v>83985</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B247">
         <v>83058</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B248">
         <v>81174</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B249">
         <v>80648</v>
@@ -5455,7 +5455,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B250">
         <v>80423</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B251">
         <v>80395</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B252">
         <v>80097</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B253">
         <v>78735</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B254">
         <v>78523</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B255">
         <v>77920</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B256">
         <v>77290</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B257">
         <v>77191</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B258">
         <v>76781</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B259">
         <v>76640</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B260">
         <v>75363</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B261">
         <v>75297</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B262">
         <v>74361</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B263">
         <v>73816</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B264">
         <v>73562</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B265">
         <v>73444</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B266">
         <v>72533</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B267">
         <v>71658</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B268">
         <v>71558</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B269">
         <v>70875</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B270">
         <v>70783</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B271">
         <v>70503</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B272">
         <v>70433</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B273">
         <v>69796</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B274">
         <v>69406</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B275">
         <v>69271</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B276">
         <v>69011</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B277">
         <v>68849</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B278">
         <v>68665</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B279">
         <v>68539</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B280">
         <v>67875</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B281">
         <v>67785</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B282">
         <v>67065</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B283">
         <v>67037</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B284">
         <v>66971</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B285">
         <v>65794</v>
@@ -5743,7 +5743,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B286">
         <v>65675</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B287">
         <v>65532</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B288">
         <v>65314</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B289">
         <v>65311</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B290">
         <v>64733</v>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B291">
         <v>64691</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B292">
         <v>64240</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B293">
         <v>63971</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B294">
         <v>63600</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B295">
         <v>62909</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B296">
         <v>62849</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B297">
         <v>62769</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B298">
         <v>62099</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B299">
         <v>61894</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B300">
         <v>61634</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B301">
         <v>61546</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B302">
         <v>61515</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B303">
         <v>60677</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B304">
         <v>60321</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B305">
         <v>60274</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B306">
         <v>59328</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B307">
         <v>59243</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B308">
         <v>59169</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B309">
         <v>58893</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B310">
         <v>58740</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B311">
         <v>58663</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B312">
         <v>58487</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B313">
         <v>57709</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B314">
         <v>57551</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B315">
         <v>57337</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B316">
         <v>57301</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B317">
         <v>57251</v>
@@ -5999,7 +5999,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B318">
         <v>57186</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B319">
         <v>56684</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B320">
         <v>56596</v>
@@ -6023,7 +6023,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B321">
         <v>56579</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B322">
         <v>56129</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B323">
         <v>55221</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B324">
         <v>54522</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B325">
         <v>54459</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B326">
         <v>54388</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B327">
         <v>54313</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B328">
         <v>54097</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B329">
         <v>54080</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B330">
         <v>53256</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B331">
         <v>53189</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B332">
         <v>52943</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B333">
         <v>52867</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B334">
         <v>52766</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B335">
         <v>52212</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B336">
         <v>51419</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B337">
         <v>51252</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B338">
         <v>51104</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B339">
         <v>50407</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B340">
         <v>49530</v>
@@ -6183,7 +6183,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B341">
         <v>49420</v>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B342">
         <v>49349</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B343">
         <v>49036</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B344">
         <v>48986</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B345">
         <v>48969</v>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B346">
         <v>48864</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B347">
         <v>48813</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B348">
         <v>48527</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B349">
         <v>48158</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B350">
         <v>47903</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B351">
         <v>47686</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B352">
         <v>47319</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B353">
         <v>47015</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B354">
         <v>46999</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B355">
         <v>46964</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B356">
         <v>46912</v>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B357">
         <v>46673</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B358">
         <v>46619</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B359">
         <v>46449</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B360">
         <v>46152</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B361">
         <v>46115</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B362">
         <v>46051</v>
@@ -6359,7 +6359,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B363">
         <v>45980</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B364">
         <v>45610</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B365">
         <v>45464</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B366">
         <v>45325</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B367">
         <v>45319</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B368">
         <v>45193</v>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B369">
         <v>44954</v>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B370">
         <v>44733</v>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B371">
         <v>44715</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B372">
         <v>44653</v>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B373">
         <v>44621</v>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B374">
         <v>44372</v>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B375">
         <v>43064</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B376">
         <v>43029</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B377">
         <v>42835</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B378">
         <v>42589</v>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B379">
         <v>42516</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B380">
         <v>42261</v>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B381">
         <v>42196</v>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B382">
         <v>42165</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B383">
         <v>41732</v>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B384">
         <v>41547</v>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B385">
         <v>41413</v>
@@ -6543,7 +6543,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B386">
         <v>41204</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B387">
         <v>41179</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B388">
         <v>40973</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B389">
         <v>40971</v>
@@ -6575,7 +6575,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B390">
         <v>40853</v>
@@ -6583,7 +6583,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B391">
         <v>40788</v>
@@ -6591,7 +6591,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B392">
         <v>40760</v>
@@ -6599,7 +6599,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B393">
         <v>40652</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B394">
         <v>40501</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B395">
         <v>40439</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B396">
         <v>40412</v>
@@ -6631,7 +6631,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B397">
         <v>40050</v>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B398">
         <v>39834</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B399">
         <v>39567</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B400">
         <v>39509</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B401">
         <v>39476</v>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B402">
         <v>39466</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B403">
         <v>39422</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B404">
         <v>39198</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B405">
         <v>39054</v>
@@ -6703,7 +6703,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B406">
         <v>39015</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B407">
         <v>38926</v>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B408">
         <v>38893</v>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B409">
         <v>38814</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B410">
         <v>38481</v>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B411">
         <v>38360</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B412">
         <v>38310</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B413">
         <v>38259</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B414">
         <v>38247</v>
@@ -6775,7 +6775,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B415">
         <v>38180</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B416">
         <v>38155</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B417">
         <v>37981</v>
@@ -6799,7 +6799,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B418">
         <v>37859</v>
@@ -6807,7 +6807,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B419">
         <v>37852</v>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B420">
         <v>37600</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B421">
         <v>37531</v>
@@ -6831,7 +6831,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B422">
         <v>37513</v>
@@ -6839,7 +6839,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B423">
         <v>37424</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B424">
         <v>37301</v>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B425">
         <v>37149</v>
@@ -6863,7 +6863,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B426">
         <v>37060</v>
@@ -6871,7 +6871,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B427">
         <v>37051</v>
@@ -6879,7 +6879,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B428">
         <v>36948</v>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B429">
         <v>36503</v>
@@ -6895,7 +6895,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B430">
         <v>36314</v>
@@ -6903,7 +6903,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B431">
         <v>36302</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B432">
         <v>36196</v>
@@ -6919,7 +6919,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B433">
         <v>35977</v>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B434">
         <v>35924</v>
@@ -6935,7 +6935,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B435">
         <v>35771</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B436">
         <v>35492</v>
@@ -6951,7 +6951,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B437">
         <v>35255</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B438">
         <v>35028</v>
@@ -6967,7 +6967,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B439">
         <v>34977</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B440">
         <v>34825</v>
@@ -6983,7 +6983,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B441">
         <v>34810</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B442">
         <v>34689</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B443">
         <v>34631</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B444">
         <v>34615</v>
@@ -7015,7 +7015,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B445">
         <v>34548</v>
@@ -7023,7 +7023,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B446">
         <v>34516</v>
@@ -7031,7 +7031,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B447">
         <v>34374</v>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B448">
         <v>34069</v>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B449">
         <v>33848</v>
@@ -7055,7 +7055,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B450">
         <v>33786</v>
@@ -7063,7 +7063,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B451">
         <v>33640</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B452">
         <v>33402</v>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B453">
         <v>33364</v>
@@ -7087,7 +7087,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B454">
         <v>32965</v>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B455">
         <v>32753</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B456">
         <v>32752</v>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B457">
         <v>32750</v>
@@ -7119,7 +7119,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B458">
         <v>32726</v>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B459">
         <v>32707</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B460">
         <v>32702</v>
@@ -7143,7 +7143,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B461">
         <v>32565</v>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B462">
         <v>32549</v>
@@ -7159,7 +7159,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B463">
         <v>32530</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B464">
         <v>32097</v>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B465">
         <v>32067</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B466">
         <v>31866</v>
@@ -7191,7 +7191,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B467">
         <v>31266</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B468">
         <v>30872</v>
@@ -7207,7 +7207,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B469">
         <v>30816</v>
@@ -7215,7 +7215,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B470">
         <v>30537</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B471">
         <v>30357</v>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B472">
         <v>30335</v>
@@ -7239,7 +7239,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B473">
         <v>30300</v>
@@ -7247,7 +7247,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B474">
         <v>30298</v>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B475">
         <v>30279</v>
@@ -7263,7 +7263,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B476">
         <v>30148</v>
@@ -7271,7 +7271,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B477">
         <v>30106</v>
@@ -7279,7 +7279,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B478">
         <v>29981</v>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B479">
         <v>29946</v>
@@ -7295,7 +7295,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B480">
         <v>29680</v>
@@ -7303,7 +7303,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B481">
         <v>29597</v>
@@ -7311,7 +7311,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B482">
         <v>29590</v>
@@ -7319,7 +7319,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B483">
         <v>29503</v>
@@ -7327,7 +7327,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B484">
         <v>29494</v>
@@ -7335,7 +7335,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B485">
         <v>29179</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B486">
         <v>29129</v>
@@ -7351,7 +7351,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B487">
         <v>28811</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B488">
         <v>28498</v>
@@ -7367,7 +7367,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B489">
         <v>28250</v>
@@ -7375,7 +7375,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B490">
         <v>28210</v>
@@ -7383,7 +7383,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B491">
         <v>28022</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B492">
         <v>27817</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B493">
         <v>27695</v>
@@ -7407,7 +7407,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B494">
         <v>27664</v>
@@ -7415,7 +7415,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B495">
         <v>27627</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B496">
         <v>27625</v>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B497">
         <v>27595</v>
@@ -7439,7 +7439,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B498">
         <v>27574</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B499">
         <v>27570</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B500">
         <v>27389</v>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B501">
         <v>27351</v>
@@ -7471,7 +7471,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B502">
         <v>27220</v>
@@ -7479,7 +7479,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B503">
         <v>27179</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B504">
         <v>27158</v>
@@ -7495,7 +7495,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B505">
         <v>27003</v>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B506">
         <v>26955</v>
@@ -7511,7 +7511,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B507">
         <v>26827</v>
@@ -7519,7 +7519,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B508">
         <v>26776</v>
@@ -7527,7 +7527,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B509">
         <v>26591</v>
@@ -7535,7 +7535,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B510">
         <v>26578</v>
@@ -7543,7 +7543,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B511">
         <v>26534</v>
@@ -7551,7 +7551,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B512">
         <v>26471</v>
@@ -7559,7 +7559,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B513">
         <v>26403</v>
@@ -7567,7 +7567,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B514">
         <v>26401</v>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B515">
         <v>26382</v>
@@ -7583,7 +7583,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B516">
         <v>26370</v>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B517">
         <v>26196</v>
@@ -7599,7 +7599,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B518">
         <v>26056</v>
@@ -7607,7 +7607,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B519">
         <v>26044</v>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B520">
         <v>25923</v>
@@ -7623,7 +7623,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B521">
         <v>25552</v>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B522">
         <v>25550</v>
@@ -7639,7 +7639,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B523">
         <v>25319</v>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B524">
         <v>25287</v>
@@ -7655,7 +7655,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B525">
         <v>25018</v>
@@ -7663,7 +7663,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B526">
         <v>25013</v>
@@ -7671,7 +7671,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B527">
         <v>24969</v>
@@ -7679,7 +7679,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B528">
         <v>24949</v>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B529">
         <v>24921</v>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B530">
         <v>24881</v>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B531">
         <v>24610</v>
@@ -7711,7 +7711,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B532">
         <v>24547</v>
@@ -7719,7 +7719,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B533">
         <v>24518</v>
@@ -7727,7 +7727,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B534">
         <v>24419</v>
@@ -7735,7 +7735,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B535">
         <v>24365</v>
@@ -7743,7 +7743,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B536">
         <v>24270</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B537">
         <v>24216</v>
@@ -7759,7 +7759,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B538">
         <v>24081</v>
@@ -7767,7 +7767,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B539">
         <v>24037</v>
@@ -7775,7 +7775,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B540">
         <v>23951</v>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B541">
         <v>23935</v>
@@ -7791,7 +7791,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B542">
         <v>23886</v>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B543">
         <v>23830</v>
@@ -7807,7 +7807,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B544">
         <v>23788</v>
@@ -7815,7 +7815,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B545">
         <v>23729</v>
@@ -7823,7 +7823,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B546">
         <v>23698</v>
@@ -7831,7 +7831,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B547">
         <v>23555</v>
@@ -7839,7 +7839,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B548">
         <v>23496</v>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B549">
         <v>23393</v>
@@ -7855,7 +7855,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B550">
         <v>23374</v>
@@ -7863,7 +7863,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B551">
         <v>23185</v>
@@ -7871,7 +7871,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B552">
         <v>23115</v>
@@ -7879,7 +7879,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B553">
         <v>23098</v>
@@ -7887,7 +7887,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B554">
         <v>23094</v>
@@ -7895,7 +7895,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B555">
         <v>22975</v>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B556">
         <v>22907</v>
@@ -7911,7 +7911,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B557">
         <v>22883</v>
@@ -7919,7 +7919,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B558">
         <v>22752</v>
@@ -7927,7 +7927,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B559">
         <v>22701</v>
@@ -7935,7 +7935,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B560">
         <v>22679</v>
@@ -7943,7 +7943,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B561">
         <v>22523</v>
@@ -7951,7 +7951,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B562">
         <v>22512</v>
@@ -7959,7 +7959,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B563">
         <v>22474</v>
@@ -7967,7 +7967,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B564">
         <v>22357</v>
@@ -7975,7 +7975,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B565">
         <v>22304</v>
@@ -7983,7 +7983,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B566">
         <v>22242</v>
@@ -7991,7 +7991,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B567">
         <v>22110</v>
@@ -7999,7 +7999,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B568">
         <v>22081</v>
@@ -8007,7 +8007,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B569">
         <v>22041</v>
@@ -8015,7 +8015,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B570">
         <v>22003</v>
@@ -8023,7 +8023,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B571">
         <v>21928</v>
@@ -8031,7 +8031,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B572">
         <v>21914</v>
@@ -8039,7 +8039,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B573">
         <v>21911</v>
@@ -8047,7 +8047,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B574">
         <v>21811</v>
@@ -8055,7 +8055,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B575">
         <v>21775</v>
@@ -8063,7 +8063,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B576">
         <v>21736</v>
@@ -8071,7 +8071,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B577">
         <v>21706</v>
@@ -8079,7 +8079,7 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B578">
         <v>21690</v>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B579">
         <v>21565</v>
@@ -8095,7 +8095,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B580">
         <v>21561</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B581">
         <v>21544</v>
@@ -8111,7 +8111,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B582">
         <v>21464</v>
@@ -8119,7 +8119,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B583">
         <v>21181</v>
@@ -8127,7 +8127,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B584">
         <v>21158</v>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B585">
         <v>21140</v>
@@ -8143,7 +8143,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B586">
         <v>21106</v>
@@ -8151,7 +8151,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B587">
         <v>21093</v>
@@ -8159,7 +8159,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B588">
         <v>20960</v>
@@ -8167,7 +8167,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B589">
         <v>20897</v>
@@ -8175,7 +8175,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B590">
         <v>20867</v>
@@ -8183,7 +8183,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B591">
         <v>20814</v>
@@ -8191,7 +8191,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B592">
         <v>20804</v>
@@ -8199,7 +8199,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B593">
         <v>20760</v>
@@ -8207,7 +8207,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B594">
         <v>20615</v>
@@ -8215,7 +8215,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B595">
         <v>20563</v>
@@ -8223,7 +8223,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B596">
         <v>20551</v>
@@ -8231,7 +8231,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B597">
         <v>20527</v>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B598">
         <v>20524</v>
@@ -8247,7 +8247,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B599">
         <v>20466</v>
@@ -8255,7 +8255,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B600">
         <v>20428</v>
@@ -8263,7 +8263,7 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B601">
         <v>20417</v>
@@ -8271,7 +8271,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B602">
         <v>20399</v>
@@ -8279,7 +8279,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B603">
         <v>20393</v>
@@ -8287,7 +8287,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B604">
         <v>20296</v>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B605">
         <v>20284</v>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B606">
         <v>20193</v>
@@ -8311,7 +8311,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B607">
         <v>20173</v>
@@ -8319,7 +8319,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B608">
         <v>20045</v>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B609">
         <v>20024</v>
@@ -8335,7 +8335,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B610">
         <v>20014</v>
@@ -8343,7 +8343,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B611">
         <v>20007</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B612">
         <v>19999</v>
@@ -8359,7 +8359,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B613">
         <v>19878</v>
@@ -8367,7 +8367,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B614">
         <v>19875</v>
@@ -8375,7 +8375,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B615">
         <v>19838</v>
@@ -8383,7 +8383,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B616">
         <v>19820</v>
@@ -8391,7 +8391,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B617">
         <v>19770</v>
@@ -8399,7 +8399,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B618">
         <v>19753</v>
@@ -8407,7 +8407,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B619">
         <v>19751</v>
@@ -8415,7 +8415,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B620">
         <v>19743</v>
@@ -8423,7 +8423,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B621">
         <v>19740</v>
@@ -8431,7 +8431,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B622">
         <v>19679</v>
@@ -8439,7 +8439,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B623">
         <v>19676</v>
@@ -8447,7 +8447,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B624">
         <v>19660</v>
@@ -8455,7 +8455,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B625">
         <v>19617</v>
@@ -8463,7 +8463,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B626">
         <v>19402</v>
@@ -8471,7 +8471,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B627">
         <v>19383</v>
@@ -8479,7 +8479,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B628">
         <v>19341</v>
@@ -8487,7 +8487,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B629">
         <v>19279</v>
@@ -8495,7 +8495,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B630">
         <v>19273</v>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B631">
         <v>19251</v>
@@ -8511,7 +8511,7 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B632">
         <v>19236</v>
@@ -8519,7 +8519,7 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B633">
         <v>19234</v>
@@ -8527,7 +8527,7 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B634">
         <v>19195</v>
@@ -8535,7 +8535,7 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B635">
         <v>19165</v>
@@ -8543,7 +8543,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B636">
         <v>19162</v>
@@ -8551,7 +8551,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B637">
         <v>19152</v>
@@ -8559,7 +8559,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B638">
         <v>19146</v>
@@ -8567,7 +8567,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B639">
         <v>19137</v>
@@ -8575,7 +8575,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B640">
         <v>19115</v>
@@ -8583,7 +8583,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B641">
         <v>18987</v>
@@ -8591,7 +8591,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B642">
         <v>18976</v>
@@ -8599,7 +8599,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B643">
         <v>18974</v>
@@ -8607,7 +8607,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B644">
         <v>18947</v>
@@ -8615,7 +8615,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B645">
         <v>18860</v>
@@ -8623,7 +8623,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B646">
         <v>18832</v>
@@ -8631,7 +8631,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B647">
         <v>18769</v>
@@ -8639,7 +8639,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B648">
         <v>18766</v>
@@ -8647,7 +8647,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B649">
         <v>18745</v>
@@ -8655,7 +8655,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B650">
         <v>18731</v>
@@ -8663,7 +8663,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B651">
         <v>18640</v>
@@ -8671,7 +8671,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B652">
         <v>18640</v>
@@ -8679,7 +8679,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B653">
         <v>18625</v>
@@ -8687,7 +8687,7 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B654">
         <v>18625</v>
@@ -8695,7 +8695,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B655">
         <v>18564</v>
@@ -8703,7 +8703,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B656">
         <v>18461</v>
@@ -8711,7 +8711,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B657">
         <v>18458</v>
@@ -8719,7 +8719,7 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B658">
         <v>18447</v>
@@ -8727,7 +8727,7 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B659">
         <v>18424</v>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B660">
         <v>18399</v>
@@ -8743,7 +8743,7 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B661">
         <v>18393</v>
@@ -8751,7 +8751,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B662">
         <v>18371</v>
@@ -8759,7 +8759,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B663">
         <v>18335</v>
@@ -8767,7 +8767,7 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B664">
         <v>18283</v>
@@ -8775,7 +8775,7 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B665">
         <v>18270</v>
@@ -8783,7 +8783,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B666">
         <v>18196</v>
@@ -8791,7 +8791,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B667">
         <v>18171</v>
@@ -8799,7 +8799,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B668">
         <v>18146</v>
@@ -8807,7 +8807,7 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B669">
         <v>18089</v>
@@ -8815,7 +8815,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B670">
         <v>18056</v>
@@ -8823,7 +8823,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B671">
         <v>18050</v>
@@ -8831,7 +8831,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B672">
         <v>17991</v>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B673">
         <v>17988</v>
@@ -8847,7 +8847,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B674">
         <v>17942</v>
@@ -8855,7 +8855,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B675">
         <v>17935</v>
@@ -8863,7 +8863,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B676">
         <v>17872</v>
@@ -8871,7 +8871,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B677">
         <v>17830</v>
@@ -8879,7 +8879,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B678">
         <v>17819</v>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B679">
         <v>17779</v>
@@ -8895,7 +8895,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B680">
         <v>17773</v>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B681">
         <v>17705</v>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B682">
         <v>17697</v>
@@ -8919,7 +8919,7 @@
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B683">
         <v>17694</v>
@@ -8927,7 +8927,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B684">
         <v>17673</v>
@@ -8935,7 +8935,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B685">
         <v>17630</v>
@@ -8943,7 +8943,7 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B686">
         <v>17611</v>
@@ -8951,7 +8951,7 @@
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B687">
         <v>17604</v>
@@ -8959,7 +8959,7 @@
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B688">
         <v>17595</v>
@@ -8967,7 +8967,7 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B689">
         <v>17570</v>
@@ -8975,7 +8975,7 @@
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B690">
         <v>17569</v>
@@ -8983,7 +8983,7 @@
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B691">
         <v>17512</v>
@@ -8991,7 +8991,7 @@
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B692">
         <v>17486</v>
@@ -8999,7 +8999,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B693">
         <v>17429</v>
@@ -9007,7 +9007,7 @@
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B694">
         <v>17416</v>
@@ -9015,7 +9015,7 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B695">
         <v>17369</v>
@@ -9023,7 +9023,7 @@
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B696">
         <v>17354</v>
@@ -9031,7 +9031,7 @@
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B697">
         <v>17334</v>
@@ -9039,7 +9039,7 @@
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B698">
         <v>17292</v>
@@ -9047,7 +9047,7 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B699">
         <v>17248</v>
@@ -9055,7 +9055,7 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B700">
         <v>17244</v>
@@ -9063,7 +9063,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B701">
         <v>17239</v>
@@ -9071,7 +9071,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B702">
         <v>17184</v>
@@ -9079,7 +9079,7 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B703">
         <v>17034</v>
@@ -9087,7 +9087,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B704">
         <v>17012</v>
@@ -9095,7 +9095,7 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B705">
         <v>16931</v>
@@ -9103,7 +9103,7 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B706">
         <v>16880</v>
@@ -9111,7 +9111,7 @@
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B707">
         <v>16868</v>
@@ -9119,7 +9119,7 @@
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B708">
         <v>16821</v>
@@ -9127,7 +9127,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B709">
         <v>16814</v>
@@ -9135,7 +9135,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B710">
         <v>16787</v>
@@ -9143,7 +9143,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B711">
         <v>16756</v>
@@ -9151,7 +9151,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B712">
         <v>16687</v>
@@ -9159,7 +9159,7 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B713">
         <v>16620</v>
@@ -9167,7 +9167,7 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B714">
         <v>16503</v>
@@ -9175,7 +9175,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B715">
         <v>16423</v>
@@ -9183,7 +9183,7 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B716">
         <v>16370</v>
@@ -9191,7 +9191,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B717">
         <v>16337</v>
@@ -9199,7 +9199,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B718">
         <v>16303</v>
@@ -9207,7 +9207,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B719">
         <v>16148</v>
@@ -9215,7 +9215,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B720">
         <v>16135</v>
@@ -9223,7 +9223,7 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B721">
         <v>16108</v>
@@ -9231,7 +9231,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B722">
         <v>16078</v>
@@ -9239,7 +9239,7 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B723">
         <v>16065</v>
@@ -9247,7 +9247,7 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B724">
         <v>16053</v>
@@ -9255,7 +9255,7 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B725">
         <v>16007</v>
@@ -9263,7 +9263,7 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B726">
         <v>15982</v>
@@ -9271,7 +9271,7 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B727">
         <v>15959</v>
@@ -9279,7 +9279,7 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B728">
         <v>15954</v>
@@ -9287,7 +9287,7 @@
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B729">
         <v>15933</v>
@@ -9295,7 +9295,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B730">
         <v>15891</v>
@@ -9303,7 +9303,7 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B731">
         <v>15890</v>
@@ -9311,7 +9311,7 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B732">
         <v>15882</v>
@@ -9319,7 +9319,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B733">
         <v>15875</v>
@@ -9327,7 +9327,7 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B734">
         <v>15875</v>
@@ -9335,7 +9335,7 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B735">
         <v>15856</v>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B736">
         <v>15802</v>
@@ -9351,7 +9351,7 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B737">
         <v>15796</v>
@@ -9359,7 +9359,7 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B738">
         <v>15739</v>
@@ -9367,7 +9367,7 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B739">
         <v>15699</v>
@@ -9375,7 +9375,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B740">
         <v>15644</v>
@@ -9383,7 +9383,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B741">
         <v>15621</v>
@@ -9391,7 +9391,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B742">
         <v>15610</v>
@@ -9399,7 +9399,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B743">
         <v>15574</v>
@@ -9407,7 +9407,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B744">
         <v>15500</v>
@@ -9415,7 +9415,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B745">
         <v>15353</v>
@@ -9423,7 +9423,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B746">
         <v>15333</v>
@@ -9431,7 +9431,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B747">
         <v>15304</v>
@@ -9439,7 +9439,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B748">
         <v>15300</v>
@@ -9447,7 +9447,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B749">
         <v>15157</v>
@@ -9455,7 +9455,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B750">
         <v>15136</v>
@@ -9463,7 +9463,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B751">
         <v>15078</v>
@@ -9471,7 +9471,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B752">
         <v>15076</v>
@@ -9479,7 +9479,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B753">
         <v>15041</v>
@@ -9487,7 +9487,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B754">
         <v>15016</v>
@@ -9495,7 +9495,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B755">
         <v>15014</v>
@@ -9503,7 +9503,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B756">
         <v>15011</v>
@@ -9511,7 +9511,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B757">
         <v>14979</v>
@@ -9519,7 +9519,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B758">
         <v>14922</v>
@@ -9527,7 +9527,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B759">
         <v>14916</v>
@@ -9535,7 +9535,7 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B760">
         <v>14912</v>
@@ -9543,7 +9543,7 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B761">
         <v>14898</v>
@@ -9551,7 +9551,7 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B762">
         <v>14870</v>
@@ -9559,7 +9559,7 @@
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B763">
         <v>14870</v>
@@ -9567,7 +9567,7 @@
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B764">
         <v>14866</v>
@@ -9575,7 +9575,7 @@
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B765">
         <v>14849</v>
@@ -9583,7 +9583,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B766">
         <v>14801</v>
@@ -9591,7 +9591,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B767">
         <v>14751</v>
@@ -9599,7 +9599,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B768">
         <v>14749</v>
@@ -9607,7 +9607,7 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B769">
         <v>14704</v>
@@ -9615,7 +9615,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B770">
         <v>14703</v>
@@ -9623,7 +9623,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B771">
         <v>14674</v>
@@ -9631,7 +9631,7 @@
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B772">
         <v>14670</v>
@@ -9639,7 +9639,7 @@
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B773">
         <v>14614</v>
@@ -9647,7 +9647,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B774">
         <v>14611</v>
@@ -9655,7 +9655,7 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B775">
         <v>14594</v>
@@ -9663,7 +9663,7 @@
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B776">
         <v>14579</v>
@@ -9671,7 +9671,7 @@
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B777">
         <v>14484</v>
@@ -9679,7 +9679,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B778">
         <v>14444</v>
@@ -9687,7 +9687,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B779">
         <v>14382</v>
@@ -9695,7 +9695,7 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B780">
         <v>14373</v>
@@ -9703,7 +9703,7 @@
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B781">
         <v>14344</v>
@@ -9711,7 +9711,7 @@
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B782">
         <v>14327</v>
@@ -9719,7 +9719,7 @@
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B783">
         <v>14305</v>
@@ -9727,7 +9727,7 @@
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B784">
         <v>14304</v>
@@ -9735,7 +9735,7 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B785">
         <v>14270</v>
@@ -9743,7 +9743,7 @@
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B786">
         <v>14260</v>
@@ -9751,7 +9751,7 @@
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B787">
         <v>14202</v>
@@ -9759,7 +9759,7 @@
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B788">
         <v>14169</v>
@@ -9767,7 +9767,7 @@
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B789">
         <v>14142</v>
@@ -9775,7 +9775,7 @@
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B790">
         <v>14112</v>
@@ -9783,7 +9783,7 @@
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B791">
         <v>14100</v>
@@ -9791,7 +9791,7 @@
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B792">
         <v>14068</v>
@@ -9799,7 +9799,7 @@
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B793">
         <v>14055</v>
@@ -9807,7 +9807,7 @@
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B794">
         <v>14050</v>
@@ -9815,7 +9815,7 @@
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B795">
         <v>14038</v>
@@ -9823,7 +9823,7 @@
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B796">
         <v>13982</v>
@@ -9831,7 +9831,7 @@
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B797">
         <v>13889</v>
@@ -9839,7 +9839,7 @@
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B798">
         <v>13874</v>
@@ -9847,7 +9847,7 @@
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B799">
         <v>13830</v>
@@ -9855,7 +9855,7 @@
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B800">
         <v>13808</v>
@@ -9863,7 +9863,7 @@
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B801">
         <v>13806</v>
@@ -9871,7 +9871,7 @@
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B802">
         <v>13798</v>
@@ -9879,7 +9879,7 @@
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B803">
         <v>13778</v>
@@ -9887,7 +9887,7 @@
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B804">
         <v>13737</v>
@@ -9895,7 +9895,7 @@
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B805">
         <v>13731</v>
@@ -9903,7 +9903,7 @@
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B806">
         <v>13670</v>
@@ -9911,7 +9911,7 @@
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B807">
         <v>13585</v>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B808">
         <v>13517</v>
@@ -9927,7 +9927,7 @@
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B809">
         <v>13500</v>
@@ -9935,7 +9935,7 @@
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B810">
         <v>13477</v>
@@ -9943,7 +9943,7 @@
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B811">
         <v>13423</v>
@@ -9951,7 +9951,7 @@
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B812">
         <v>13421</v>
@@ -9959,7 +9959,7 @@
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B813">
         <v>13358</v>
@@ -9967,7 +9967,7 @@
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B814">
         <v>13313</v>
@@ -9975,7 +9975,7 @@
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B815">
         <v>13307</v>
@@ -9983,7 +9983,7 @@
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B816">
         <v>13284</v>
@@ -9991,7 +9991,7 @@
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B817">
         <v>13249</v>
@@ -9999,7 +9999,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B818">
         <v>13233</v>
@@ -10007,7 +10007,7 @@
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B819">
         <v>13210</v>
@@ -10015,7 +10015,7 @@
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B820">
         <v>13197</v>
@@ -10023,7 +10023,7 @@
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B821">
         <v>13187</v>
@@ -10031,7 +10031,7 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B822">
         <v>13162</v>
@@ -10039,7 +10039,7 @@
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B823">
         <v>13113</v>
@@ -10047,7 +10047,7 @@
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B824">
         <v>13104</v>
@@ -10055,7 +10055,7 @@
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B825">
         <v>13092</v>
@@ -10063,7 +10063,7 @@
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B826">
         <v>13062</v>
@@ -10071,7 +10071,7 @@
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B827">
         <v>13049</v>
@@ -10079,7 +10079,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B828">
         <v>13046</v>
@@ -10087,7 +10087,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B829">
         <v>13022</v>
@@ -10095,7 +10095,7 @@
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B830">
         <v>12982</v>
@@ -10103,7 +10103,7 @@
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B831">
         <v>12975</v>
@@ -10111,7 +10111,7 @@
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B832">
         <v>12957</v>
@@ -10119,7 +10119,7 @@
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B833">
         <v>12948</v>
@@ -10127,7 +10127,7 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B834">
         <v>12937</v>
@@ -10135,7 +10135,7 @@
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B835">
         <v>12850</v>
@@ -10143,7 +10143,7 @@
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B836">
         <v>12846</v>
@@ -10151,7 +10151,7 @@
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B837">
         <v>12834</v>
@@ -10159,7 +10159,7 @@
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B838">
         <v>12765</v>
@@ -10167,7 +10167,7 @@
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B839">
         <v>12757</v>
@@ -10175,7 +10175,7 @@
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B840">
         <v>12751</v>
@@ -10183,7 +10183,7 @@
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B841">
         <v>12746</v>
@@ -10191,7 +10191,7 @@
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B842">
         <v>12733</v>
@@ -10199,7 +10199,7 @@
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B843">
         <v>12725</v>
@@ -10207,7 +10207,7 @@
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B844">
         <v>12720</v>
@@ -10215,7 +10215,7 @@
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B845">
         <v>12719</v>
@@ -10223,7 +10223,7 @@
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B846">
         <v>12692</v>
@@ -10231,7 +10231,7 @@
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B847">
         <v>12619</v>
@@ -10239,7 +10239,7 @@
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B848">
         <v>12600</v>
@@ -10247,7 +10247,7 @@
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B849">
         <v>12599</v>
@@ -10255,7 +10255,7 @@
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B850">
         <v>12584</v>
@@ -10263,7 +10263,7 @@
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B851">
         <v>12575</v>
@@ -10271,7 +10271,7 @@
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B852">
         <v>12571</v>
@@ -10279,7 +10279,7 @@
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B853">
         <v>12570</v>
@@ -10287,7 +10287,7 @@
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B854">
         <v>12562</v>
@@ -10295,7 +10295,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B855">
         <v>12552</v>
@@ -10303,7 +10303,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B856">
         <v>12550</v>
@@ -10311,7 +10311,7 @@
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B857">
         <v>12526</v>
@@ -10319,7 +10319,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B858">
         <v>12520</v>
@@ -10327,7 +10327,7 @@
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B859">
         <v>12473</v>
@@ -10335,7 +10335,7 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B860">
         <v>12457</v>
@@ -10343,7 +10343,7 @@
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B861">
         <v>12453</v>
@@ -10351,7 +10351,7 @@
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B862">
         <v>12449</v>
@@ -10359,7 +10359,7 @@
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B863">
         <v>12444</v>
@@ -10367,7 +10367,7 @@
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B864">
         <v>12437</v>
@@ -10375,7 +10375,7 @@
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B865">
         <v>12429</v>
@@ -10383,7 +10383,7 @@
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B866">
         <v>12417</v>
@@ -10391,7 +10391,7 @@
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B867">
         <v>12384</v>
@@ -10399,7 +10399,7 @@
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B868">
         <v>12381</v>
@@ -10407,7 +10407,7 @@
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B869">
         <v>12380</v>
@@ -10415,7 +10415,7 @@
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B870">
         <v>12377</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B871">
         <v>12301</v>
@@ -10431,7 +10431,7 @@
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B872">
         <v>12261</v>
@@ -10439,7 +10439,7 @@
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B873">
         <v>12261</v>
@@ -10447,7 +10447,7 @@
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B874">
         <v>12261</v>
@@ -10455,7 +10455,7 @@
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B875">
         <v>12250</v>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B876">
         <v>12245</v>
@@ -10471,7 +10471,7 @@
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B877">
         <v>12211</v>
@@ -10479,7 +10479,7 @@
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B878">
         <v>12196</v>
@@ -10487,7 +10487,7 @@
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B879">
         <v>12193</v>
@@ -10495,7 +10495,7 @@
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B880">
         <v>12169</v>
@@ -10503,7 +10503,7 @@
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B881">
         <v>12156</v>
@@ -10511,7 +10511,7 @@
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B882">
         <v>12136</v>
@@ -10519,7 +10519,7 @@
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B883">
         <v>12124</v>
@@ -10527,7 +10527,7 @@
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B884">
         <v>12103</v>
@@ -10535,7 +10535,7 @@
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B885">
         <v>12093</v>
@@ -10543,7 +10543,7 @@
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B886">
         <v>12082</v>
@@ -10551,7 +10551,7 @@
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B887">
         <v>12002</v>
@@ -10559,7 +10559,7 @@
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B888">
         <v>11965</v>
@@ -10567,7 +10567,7 @@
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B889">
         <v>11963</v>
@@ -10575,7 +10575,7 @@
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B890">
         <v>11879</v>
@@ -10583,7 +10583,7 @@
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B891">
         <v>11864</v>
@@ -10591,7 +10591,7 @@
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B892">
         <v>11846</v>
@@ -10599,7 +10599,7 @@
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B893">
         <v>11833</v>
@@ -10607,7 +10607,7 @@
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B894">
         <v>11828</v>
@@ -10615,7 +10615,7 @@
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B895">
         <v>11804</v>
@@ -10623,7 +10623,7 @@
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B896">
         <v>11803</v>
@@ -10631,7 +10631,7 @@
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B897">
         <v>11801</v>
@@ -10639,7 +10639,7 @@
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B898">
         <v>11794</v>
@@ -10647,7 +10647,7 @@
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B899">
         <v>11789</v>
@@ -10655,7 +10655,7 @@
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B900">
         <v>11767</v>
@@ -10663,7 +10663,7 @@
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B901">
         <v>11762</v>
@@ -10671,7 +10671,7 @@
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B902">
         <v>11697</v>
@@ -10679,7 +10679,7 @@
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B903">
         <v>11697</v>
@@ -10687,7 +10687,7 @@
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B904">
         <v>11680</v>
@@ -10695,7 +10695,7 @@
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B905">
         <v>11679</v>
@@ -10703,7 +10703,7 @@
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B906">
         <v>11661</v>
@@ -10711,7 +10711,7 @@
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B907">
         <v>11631</v>
@@ -10719,7 +10719,7 @@
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B908">
         <v>11630</v>
@@ -10727,7 +10727,7 @@
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B909">
         <v>11603</v>
@@ -10735,7 +10735,7 @@
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B910">
         <v>11583</v>
@@ -10743,7 +10743,7 @@
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B911">
         <v>11582</v>
@@ -10751,7 +10751,7 @@
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B912">
         <v>11563</v>
@@ -10759,7 +10759,7 @@
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B913">
         <v>11561</v>
@@ -10767,7 +10767,7 @@
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B914">
         <v>11560</v>
@@ -10775,7 +10775,7 @@
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B915">
         <v>11551</v>
@@ -10783,7 +10783,7 @@
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B916">
         <v>11495</v>
@@ -10791,7 +10791,7 @@
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B917">
         <v>11489</v>
@@ -10799,7 +10799,7 @@
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B918">
         <v>11483</v>
@@ -10807,7 +10807,7 @@
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B919">
         <v>11461</v>
@@ -10815,7 +10815,7 @@
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B920">
         <v>11459</v>
@@ -10823,7 +10823,7 @@
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B921">
         <v>11449</v>
@@ -10831,7 +10831,7 @@
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B922">
         <v>11443</v>
@@ -10839,7 +10839,7 @@
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B923">
         <v>11438</v>
@@ -10847,7 +10847,7 @@
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B924">
         <v>11411</v>
@@ -10855,7 +10855,7 @@
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B925">
         <v>11405</v>
@@ -10863,7 +10863,7 @@
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B926">
         <v>11401</v>
@@ -10871,7 +10871,7 @@
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B927">
         <v>11375</v>
@@ -10879,7 +10879,7 @@
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B928">
         <v>11374</v>
@@ -10887,7 +10887,7 @@
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B929">
         <v>11355</v>
@@ -10895,7 +10895,7 @@
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B930">
         <v>11335</v>
@@ -10903,7 +10903,7 @@
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B931">
         <v>11266</v>
@@ -10911,7 +10911,7 @@
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B932">
         <v>11246</v>
@@ -10919,7 +10919,7 @@
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B933">
         <v>11212</v>
@@ -10927,7 +10927,7 @@
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B934">
         <v>11175</v>
@@ -10935,7 +10935,7 @@
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B935">
         <v>11167</v>
@@ -10943,7 +10943,7 @@
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B936">
         <v>11133</v>
@@ -10951,7 +10951,7 @@
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B937">
         <v>11117</v>
@@ -10959,7 +10959,7 @@
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B938">
         <v>11090</v>
@@ -10967,7 +10967,7 @@
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B939">
         <v>11069</v>
@@ -10975,7 +10975,7 @@
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B940">
         <v>11067</v>
@@ -10983,7 +10983,7 @@
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B941">
         <v>11058</v>
@@ -10991,7 +10991,7 @@
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B942">
         <v>11032</v>
@@ -10999,7 +10999,7 @@
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B943">
         <v>10996</v>
@@ -11007,7 +11007,7 @@
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B944">
         <v>10964</v>
@@ -11015,7 +11015,7 @@
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B945">
         <v>10946</v>
@@ -11023,7 +11023,7 @@
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B946">
         <v>10929</v>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B947">
         <v>10922</v>
@@ -11039,7 +11039,7 @@
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B948">
         <v>10851</v>
@@ -11047,7 +11047,7 @@
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B949">
         <v>10841</v>
@@ -11055,7 +11055,7 @@
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B950">
         <v>10822</v>
@@ -11063,7 +11063,7 @@
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B951">
         <v>10817</v>
@@ -11071,7 +11071,7 @@
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B952">
         <v>10813</v>
@@ -11079,7 +11079,7 @@
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B953">
         <v>10809</v>
@@ -11087,7 +11087,7 @@
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B954">
         <v>10805</v>
@@ -11095,7 +11095,7 @@
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B955">
         <v>10791</v>
@@ -11103,7 +11103,7 @@
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B956">
         <v>10756</v>
@@ -11111,7 +11111,7 @@
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B957">
         <v>10752</v>
@@ -11119,7 +11119,7 @@
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B958">
         <v>10733</v>
@@ -11127,7 +11127,7 @@
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B959">
         <v>10699</v>
@@ -11135,7 +11135,7 @@
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B960">
         <v>10684</v>
@@ -11143,7 +11143,7 @@
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B961">
         <v>10663</v>
@@ -11151,7 +11151,7 @@
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B962">
         <v>10652</v>
@@ -11159,7 +11159,7 @@
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B963">
         <v>10639</v>
@@ -11167,7 +11167,7 @@
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B964">
         <v>10630</v>
@@ -11175,7 +11175,7 @@
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B965">
         <v>10611</v>
@@ -11183,7 +11183,7 @@
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B966">
         <v>10591</v>
@@ -11191,7 +11191,7 @@
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B967">
         <v>10585</v>
@@ -11199,7 +11199,7 @@
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B968">
         <v>10582</v>
@@ -11207,7 +11207,7 @@
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B969">
         <v>10573</v>
@@ -11215,7 +11215,7 @@
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B970">
         <v>10550</v>
@@ -11223,7 +11223,7 @@
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B971">
         <v>10548</v>
@@ -11231,7 +11231,7 @@
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B972">
         <v>10545</v>
@@ -11239,7 +11239,7 @@
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B973">
         <v>10535</v>
@@ -11247,7 +11247,7 @@
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B974">
         <v>10503</v>
@@ -11255,7 +11255,7 @@
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B975">
         <v>10499</v>
@@ -11263,7 +11263,7 @@
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B976">
         <v>10496</v>
@@ -11271,7 +11271,7 @@
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B977">
         <v>10476</v>
@@ -11279,7 +11279,7 @@
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B978">
         <v>10468</v>
@@ -11287,7 +11287,7 @@
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B979">
         <v>10462</v>
@@ -11295,7 +11295,7 @@
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B980">
         <v>10452</v>
@@ -11303,7 +11303,7 @@
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B981">
         <v>10449</v>
@@ -11311,7 +11311,7 @@
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B982">
         <v>10445</v>
@@ -11319,7 +11319,7 @@
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B983">
         <v>10395</v>
@@ -11327,7 +11327,7 @@
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B984">
         <v>10376</v>
@@ -11335,7 +11335,7 @@
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B985">
         <v>10371</v>
@@ -11343,7 +11343,7 @@
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B986">
         <v>10370</v>
@@ -11351,7 +11351,7 @@
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B987">
         <v>10360</v>
@@ -11359,7 +11359,7 @@
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B988">
         <v>10343</v>
@@ -11367,7 +11367,7 @@
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B989">
         <v>10337</v>
@@ -11375,7 +11375,7 @@
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B990">
         <v>10320</v>
@@ -11383,7 +11383,7 @@
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B991">
         <v>10312</v>
@@ -11391,7 +11391,7 @@
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B992">
         <v>10305</v>
@@ -11399,7 +11399,7 @@
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B993">
         <v>10304</v>
@@ -11407,7 +11407,7 @@
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B994">
         <v>10264</v>
@@ -11415,7 +11415,7 @@
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B995">
         <v>10226</v>
@@ -11423,7 +11423,7 @@
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B996">
         <v>10203</v>
@@ -11431,7 +11431,7 @@
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B997">
         <v>10197</v>
@@ -11439,7 +11439,7 @@
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B998">
         <v>10191</v>
@@ -11447,7 +11447,7 @@
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B999">
         <v>10173</v>
@@ -11455,7 +11455,7 @@
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B1000">
         <v>10151</v>
@@ -11463,7 +11463,7 @@
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B1001">
         <v>10145</v>
@@ -11471,7 +11471,7 @@
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B1002">
         <v>10145</v>
@@ -11479,7 +11479,7 @@
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B1003" s="1">
         <v>3228</v>
